--- a/source/data/TocorrectDATA.xlsx
+++ b/source/data/TocorrectDATA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\silva\Documents\PythonProject\smell-jena\source\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A901B317-7C1E-4880-8B5D-3664EDCD5333}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB1B90CA-D37D-4697-AC22-82AC26A0BC3F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21990" windowHeight="13320" xr2:uid="{D8F5D6D4-91D4-4CD1-9587-60B732EB1BC4}"/>
   </bookViews>
@@ -512,8 +512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16FDD13B-4E84-46E2-9273-04AE4C98580F}">
   <dimension ref="A1:AD53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2:U41"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
